--- a/result/metrics_values/sample-spring-kafka-microservices.xlsx
+++ b/result/metrics_values/sample-spring-kafka-microservices.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.03893068084797408</t>
+          <t>0.03632676846962562</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.026584044959948927</t>
+          <t>0.025282088770774695</t>
         </is>
       </c>
     </row>
